--- a/server/excel/url/monthMbYs(目标预算)_url.xlsx
+++ b/server/excel/url/monthMbYs(目标预算)_url.xlsx
@@ -76,10 +76,10 @@
     <t>主键,部门ID,工程项目ID,月份时间戳,页码,数量,开始ID</t>
   </si>
   <si>
-    <t>result:CbhsMonthJjcbYs[],total:long</t>
-  </si>
-  <si>
-    <t>间接成本预算集合,总条数</t>
+    <t>result:CbhsMonthJjcbYs[],total:long,jjcbTotal:CbhsMonthJjcbYs</t>
+  </si>
+  <si>
+    <t>间接成本预算集合,总条数,合计对象</t>
   </si>
   <si>
     <t>间接成本预算-修改</t>
@@ -621,8 +621,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -1551,8 +1551,8 @@
   <sheetPr/>
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I7" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>

--- a/server/excel/url/monthMbYs(目标预算)_url.xlsx
+++ b/server/excel/url/monthMbYs(目标预算)_url.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192">
   <si>
     <t>命令码</t>
   </si>
@@ -494,6 +494,9 @@
     <t>/monthMbYs/fbGcCbYsAdd</t>
   </si>
   <si>
+    <t>yss:CbhsMonthFbGcCbYs[]</t>
+  </si>
+  <si>
     <t>分包工程大项-查询</t>
   </si>
   <si>
@@ -621,10 +624,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -781,8 +784,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -795,9 +799,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -818,6 +821,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -830,30 +857,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -866,48 +869,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -926,6 +929,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -938,7 +977,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -951,48 +996,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1111,10 +1114,10 @@
     <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1123,115 +1126,115 @@
     <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1240,13 +1243,13 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1330,7 +1333,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="EEECE1"/>
@@ -1551,8 +1554,8 @@
   <sheetPr/>
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="I13" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -2667,13 +2670,13 @@
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>144</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="J34" s="3" t="s">
         <v>144</v>
@@ -2686,10 +2689,10 @@
         <v>40805</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>14</v>
@@ -2699,16 +2702,16 @@
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K35" s="3"/>
       <c r="L35" s="4"/>
@@ -2718,10 +2721,10 @@
         <v>40806</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>14</v>
@@ -2731,16 +2734,16 @@
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K36" s="3"/>
       <c r="L36" s="4"/>
@@ -2750,10 +2753,10 @@
         <v>40901</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>14</v>
@@ -2763,16 +2766,16 @@
       </c>
       <c r="F37" s="3"/>
       <c r="G37" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K37" s="3"/>
       <c r="L37" s="4"/>
@@ -2782,10 +2785,10 @@
         <v>40902</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>14</v>
@@ -2795,16 +2798,16 @@
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H38" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="I38" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="I38" s="3" t="s">
-        <v>168</v>
-      </c>
       <c r="J38" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K38" s="3"/>
       <c r="L38" s="4"/>
@@ -2814,10 +2817,10 @@
         <v>40903</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>14</v>
@@ -2830,7 +2833,7 @@
         <v>26</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I39" s="3" t="s">
         <v>28</v>
@@ -2840,7 +2843,7 @@
       </c>
       <c r="K39" s="3"/>
       <c r="L39" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:12">
@@ -2848,10 +2851,10 @@
         <v>40904</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>14</v>
@@ -2861,16 +2864,16 @@
       </c>
       <c r="F40" s="3"/>
       <c r="G40" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K40" s="3"/>
       <c r="L40" s="4"/>
@@ -2880,10 +2883,10 @@
         <v>40905</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>14</v>
@@ -2893,16 +2896,16 @@
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>71</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K41" s="3"/>
       <c r="L41" s="4"/>
@@ -2912,10 +2915,10 @@
         <v>41001</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>14</v>
@@ -2925,16 +2928,16 @@
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K42" s="3"/>
       <c r="L42" s="4"/>
@@ -2944,10 +2947,10 @@
         <v>41002</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>14</v>
@@ -2957,16 +2960,16 @@
       </c>
       <c r="F43" s="3"/>
       <c r="G43" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K43" s="3"/>
       <c r="L43" s="4"/>

--- a/server/excel/url/monthMbYs(目标预算)_url.xlsx
+++ b/server/excel/url/monthMbYs(目标预算)_url.xlsx
@@ -132,10 +132,10 @@
     <t>/monthMbYs/glfyYsFetch</t>
   </si>
   <si>
-    <t>result:CbhsMonthGlfyYs[],total:long</t>
-  </si>
-  <si>
-    <t>管理费用集合,总条数</t>
+    <t>result:CbhsMonthGlfyYs[],total:long,hj:CbhsMonthGlfyYs</t>
+  </si>
+  <si>
+    <t>管理费用集合,总条数,合计</t>
   </si>
   <si>
     <t>管理费用预算-修改</t>
@@ -185,10 +185,10 @@
     <t>主键,部门ID,工程量ID,工程项目ID,月份时间戳,页码,数量,开始ID</t>
   </si>
   <si>
-    <t>result:CbhsMonthZyCailiaoCbYs[],total:long</t>
-  </si>
-  <si>
-    <t>自营材料成本集合,总条数</t>
+    <t>result:CbhsMonthZyCailiaoCbYs[],total:long,hj:CbhsMonthZyCailiaoCbYs</t>
+  </si>
+  <si>
+    <t>自营材料成本集合,总条数,合计</t>
   </si>
   <si>
     <t>自营材料成本-修改</t>
@@ -256,10 +256,10 @@
     <t>/monthMbYs/zyLxygCbYsFetch</t>
   </si>
   <si>
-    <t>result:CbhsMonthZyLxygCbYs[],total:long</t>
-  </si>
-  <si>
-    <t>自营零星用工成本集合,总条数</t>
+    <t>result:CbhsMonthZyLxygCbYs[],total:long,hj:CbhsMonthZyLxygCbYs</t>
+  </si>
+  <si>
+    <t>自营零星用工成本集合,总条数,合计</t>
   </si>
   <si>
     <t>自营零星用工成本-修改</t>
@@ -306,10 +306,10 @@
     <t>/monthMbYs/zyJxCbYsFetch</t>
   </si>
   <si>
-    <t>result:CbhsMonthZyJxCbYs[],total:long</t>
-  </si>
-  <si>
-    <t>自营机械成本集合,总条数</t>
+    <t>result:CbhsMonthZyJxCbYs[],total:long,hj:CbhsMonthZyJxCbYs</t>
+  </si>
+  <si>
+    <t>自营机械成本集合,总条数,合计</t>
   </si>
   <si>
     <t>自营机械成本-修改</t>
@@ -356,10 +356,10 @@
     <t>/monthMbYs/zyQtfyYsFetch</t>
   </si>
   <si>
-    <t>result:CbhsMonthZyQtfyYs[],total:long</t>
-  </si>
-  <si>
-    <t>自营其他费用集合,总条数</t>
+    <t>result:CbhsMonthZyQtfyYs[],total:long,hj:CbhsMonthZyQtfyYs</t>
+  </si>
+  <si>
+    <t>自营其他费用集合,总条数,合计</t>
   </si>
   <si>
     <t>自营其他费用-修改</t>
@@ -406,10 +406,10 @@
     <t>/monthMbYs/fbLjxmCbYsFetch</t>
   </si>
   <si>
-    <t>result:CbhsMonthFbLjxmCbYs[],total:long</t>
-  </si>
-  <si>
-    <t>分包临建项目集合,总条数</t>
+    <t>result:CbhsMonthFbLjxmCbYs[],total:long,hj:CbhsMonthFbLjxmCbYs</t>
+  </si>
+  <si>
+    <t>分包临建项目集合,总条数,合计</t>
   </si>
   <si>
     <t>分包临建项目-修改</t>
@@ -536,10 +536,10 @@
     <t>主键,部门ID,分包工程量ID,工程项目ID,月份时间戳,页码,数量,开始ID,分包商ID</t>
   </si>
   <si>
-    <t>result:CbhsMonthFbCailiaoCbYs[],total:long</t>
-  </si>
-  <si>
-    <t>分包材料成本集合,总条数</t>
+    <t>result:CbhsMonthFbCailiaoCbYs[],total:long,hj:CbhsMonthFbCailiaoCbYs</t>
+  </si>
+  <si>
+    <t>分包材料成本集合,总条数,合计</t>
   </si>
   <si>
     <t>分包材料成本-修改</t>
@@ -613,10 +613,10 @@
     <t>/monthMbYs/mbYsTotalFetch</t>
   </si>
   <si>
-    <t>result:uiCbhsMonthWebTotal[],total:long,monthYsTotal:double</t>
-  </si>
-  <si>
-    <t>结果,总条数,月份所有部门总预算</t>
+    <t>result:uiCbhsMonthWebTotal[],total:long,monthYsTotal:double,hj:uiCbhsMonthWebTotal</t>
+  </si>
+  <si>
+    <t>结果,总条数,月份所有部门总预算,合计</t>
   </si>
 </sst>
 </file>
@@ -624,10 +624,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -662,9 +662,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -679,22 +716,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -710,21 +761,23 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -739,32 +792,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -776,35 +805,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -815,37 +815,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -857,145 +995,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1006,60 +1006,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1078,7 +1024,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1106,153 +1052,207 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1333,7 +1333,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="EEECE1"/>
@@ -1554,8 +1554,8 @@
   <sheetPr/>
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I13" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView tabSelected="1" topLeftCell="I19" workbookViewId="0">
+      <selection activeCell="A43" sqref="$A43:$XFD43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -1569,7 +1569,7 @@
     <col min="7" max="7" width="109.444444444444" customWidth="1"/>
     <col min="8" max="8" width="75.8888888888889" customWidth="1"/>
     <col min="9" max="9" width="169.555555555556" customWidth="1"/>
-    <col min="10" max="10" width="23.4444444444444" customWidth="1"/>
+    <col min="10" max="10" width="34.7777777777778" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
     <col min="12" max="12" width="114.888888888889" customWidth="1"/>
   </cols>
